--- a/data/annotated_scripts.xlsx
+++ b/data/annotated_scripts.xlsx
@@ -495,7 +495,7 @@
   </si>
   <si>
     <t xml:space="preserve">ngo5, nei5 sam1 cing4 m4 hou2 aa3?
-ngo5, nei5 hai6 hai6 m4 hai6 m4 syu1 fuk6 aa3?</t>
+ngo5, nei5 hai6 m4 hai6 m4 syu1 fuk6 aa3?</t>
   </si>
   <si>
     <r>
@@ -12962,8 +12962,8 @@
   </sheetPr>
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
       <c r="B15" s="23" t="s">
         <v>7</v>

--- a/data/annotated_scripts.xlsx
+++ b/data/annotated_scripts.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Main script" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Main script'!$E$8:$E$167</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E7F284B7_B5F7_4D04_B2BD_CA5521DD5FA3_.wvu.FilterData" vbProcedure="false">'Main script'!$E$1:$E$173</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Main script'!$E$8:$E$151</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E7F284B7_B5F7_4D04_B2BD_CA5521DD5FA3_.wvu.FilterData" vbProcedure="false">'Main script'!$E$1:$E$157</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="304">
   <si>
     <t xml:space="preserve">Grace Dialogflow Script - 09/08/2023</t>
   </si>
@@ -944,824 +944,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Q1.0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你依家幾多歲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">How old are you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nei5 ji1 gaa1 gei2 do1 seoi3?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你依家幾多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="seoi3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Intent 1: 
-&lt;Answer correctly&gt;
-(Q1.0) Age</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">我係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">I am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> years old </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(user is 72 years old)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">哦，係呀，好
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲呀？好，我寫低先</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Oh very good!
-Oh you are</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, let me write that down</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ngo5, hai6 aa4, hou2
-72 seoi3 aa4? hou2, ngo5 se2 dai1 sin1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="aa4"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">呀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，好 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="aa4"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">呀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hou2"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，我寫低先</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Intent 2: 
-&lt;Answer incorrectly&gt;
-(Q1.1) Age - Incorrect</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">I am </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> years old </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(user is not 72 years old)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真係呀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">咁你邊年出世知唔知呀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?
-72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你肯定你係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Really? Then do you remember what year you were born in?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72yo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? Really?
-Are you sure you are </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72yo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">zan1 hai6? gam2 nei5 bin1 nin4 ceot1 sai3 zi1 m4 zi1 aa3?
-72 seoi3? zan1 hai6?
-nei5 hang2 ding6 nei5 hai6 72 seoi3?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">呀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">咁你邊年出世知唔知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="aa3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">呀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? 72&lt;phoneme alphabet="x-amazon-jyutping" ph="seoi3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你肯定你係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">72&lt;phoneme alphabet="x-amazon-jyutping" ph="seoi3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">歲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Intent 3: 
 &lt;Doesn't know&gt;
 (Q1.1) Age - Doesn't know</t>
@@ -2243,27 +1425,7 @@
       <t xml:space="preserve">啱呀
 系喎，答得啱
 冇錯呀
-冇錯呀，而家係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">點</t>
+</t>
     </r>
   </si>
   <si>
@@ -2271,14 +1433,13 @@
 Yes, that's correct
 Yes, correct answer
 That's right
-Correct, it is currently 3pm.</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">ngaam1 laa3
 hai6, ngaam1 aa3
 hai6 wo3, daap3 dak1 ngaam1
-mou5 co3 aa3
-mou5 co3 aa3, ji4 gaa1 hai6 3 dim2</t>
+mou5 co3 aa3</t>
   </si>
   <si>
     <r>
@@ -2369,369 +1530,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">，答得啱 冇錯呀 冇錯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="aa3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">呀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，而家係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">點</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Intent 2: 
-&lt;Answer Incorrectly&gt;
-(Q2.1) Time - Incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is 3pm (current time is 7pm)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你可以睇下你部電話嘅時間喎
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">點</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你肯定而家係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">點</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Really? You can look at your phone
-3pm? Really?
-Are you sure it is 3pm?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zan1 hai6? nei5 ho2 ji5 tai2 haa3 nei5 bou6 din6 waa2 ge3 si4 gaan3 wo3  3 dim2?  zan1 hai6?  nei5 hang2 ding6 ji4 gaa1 hai6 3 dim2?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你可以睇下你部電話嘅時間喎 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3&lt;phoneme alphabet="x-amazon-jyutping" ph="dim2"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">點</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你肯定而家係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3&lt;phoneme alphabet="x-amazon-jyutping" ph="dim2"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">點</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;?</t>
+      <t xml:space="preserve">，答得啱 冇錯呀 </t>
     </r>
   </si>
   <si>
@@ -7232,408 +6031,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Intent 2: 
-&lt;Answer Incorrectly&gt;
-(Q6.1) Birthday - Incorrect</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">我個生日係 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">號</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">My birthday is on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">March 3rd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (user birthday is June 22nd)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你肯定你係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">號出世</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">June 22nd? Are you sure?
-Are you sure your birthday is June 22nd?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 jyut6 3 hou6? zan1 hai6?
-nei5 hang2 ding6 nei5 hai6 5 jyut6 3 hou6 ceot1 sai3?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3&lt;phoneme alphabet="x-amazon-jyutping" ph="hou6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你肯定你係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">號出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="sai3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">世</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Intent 3: 
 &lt;Doesn't know&gt;
 (Q6.1) Birthday - Doesn't know</t>
@@ -8432,336 +6829,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Intent 2: 
-&lt;Answer Incorrectly&gt;
-(Q7.1) Mid-autumn Festival - Incorrect</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">係 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">號</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">It is on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">May 21st</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">21? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你肯定中秋節係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">21?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">May 21s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">t? Are you sure?
-Are you sure that mid-autumn festival is on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF4285F4"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> May 21st</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5 jyut6 21? zan1 hai6?  nei5 hang2 ding6 zung1 cau1 zit3 hai6 5 jyut6 21? </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">21? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">真</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hai6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">你肯定中秋節係</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">21?</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Intent 3: 
 &lt;Doesn't know&gt;
 (Q7.1) Mid-autumn Festival - Doesn't know</t>
@@ -10231,54 +8298,6 @@
     <t xml:space="preserve">Q9.0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">請你由“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數至“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Please count down from "20" to "1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cing2 nei5 jau4 “20” dou3 sou2 zi3 “1”</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intent 1: 
 &lt;Count Correctly&gt;
 (Q9.0) Countdown</t>
@@ -10304,176 +8323,6 @@
     <t xml:space="preserve">19... 27... [...] 5.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">可唔可以數多一次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">由“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數至“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Could you count one more time, from 20 to 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <strike val="true"/>
-        <sz val="18"/>
-        <color rgb="FF980000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">please</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ho2 m4 ho2 ji5 sou2 do1 jat1 ci3, jau4 “20” dou3 sou2 zi3 “1” </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">可唔可以數多一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="ci3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">由“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數至“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1”</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Intent 3: 
 &lt;Cannot count&gt;
 (Q9.0) Countdown - Doesn't know</t>
@@ -10483,598 +8332,6 @@
   </si>
   <si>
     <t xml:space="preserve">I don't think I can</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">咁由</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"10"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數到 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"1" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">得唔得啊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, then could you count from 10 to 1?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngo5, gam2 jau4 "10"  dou3 sou2 dou3 "1"  dak1 m4 dak1 aa3?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="ngo5"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">咁由</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"10"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數到 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"1" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">得唔得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="aa3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">啊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">唔好意思啊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">可唔可以數多一次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">由“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數至“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1”
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">我問得唔清楚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">我想請你由“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數至“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah sorry, could you count one more time, from 20 to 1 
-I didn't ask clearly, I want to ask if you can distinguish between a nurse and a doctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m4 hou2 ji3 si1 aa3, ho2 m4 ho2 ji5 sou2 do1 jat1 ci3, jau4 “20” dou3 sou2 zi3 “1”     ngo5, ngo5 man6 dak1 m4 cing1 co2, ngo5 soeng2 cing2 nei5 jau4 “20” dou3 sou2 zi3 “1” </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">唔好意思</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="aa3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">啊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">可唔可以數多一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="ci3"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">由“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數至“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1” &lt;phoneme alphabet="x-amazon-jyutping" ph=" ngo5"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">我問得唔清</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="co2"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">楚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">我想請你由“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">20”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">倒數至“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1”</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Q10.0</t>
@@ -12356,7 +9613,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -12409,14 +9666,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="19"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
@@ -12452,10 +9701,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <strike val="true"/>
-      <sz val="18"/>
-      <color rgb="FF980000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -12464,7 +9712,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -12646,7 +9893,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12759,18 +10006,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12823,6 +10058,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12831,11 +10070,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12847,7 +10090,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12855,7 +10098,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12863,11 +10106,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -12960,10 +10203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J173"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13233,1495 +10476,1474 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+    <row r="21" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="B21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="C22" s="24" t="s">
         <v>44</v>
       </c>
+      <c r="D22" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="F22" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" customFormat="false" ht="39.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="23" t="s">
+      <c r="D24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+      <c r="C29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="D29" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" customFormat="false" ht="80.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="23" t="s">
+      <c r="C30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="C31" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="23" t="s">
+      <c r="C32" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+      <c r="B33" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="C33" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="33" t="s">
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+      <c r="B35" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="38"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="38"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="35"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="35"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B39" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="31" t="s">
+      <c r="C39" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="24" t="s">
+      <c r="D39" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="E39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="F39" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>90</v>
+        <v>81</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
       <c r="B41" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="27"/>
-    </row>
-    <row r="43" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="13"/>
       <c r="B43" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+      <c r="B45" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="D45" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="E45" s="26" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="38"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="38"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
+      <c r="F45" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13"/>
+      <c r="B47" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="35"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="35"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B51" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13"/>
-      <c r="B49" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="24" t="s">
+      <c r="C51" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D51" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E51" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F51" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
+    <row r="52" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13"/>
-      <c r="B51" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="84.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13"/>
       <c r="B53" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="27"/>
-    </row>
-    <row r="55" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="13"/>
       <c r="B55" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13"/>
+      <c r="B57" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D57" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E57" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F57" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+    <row r="58" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13"/>
+      <c r="B59" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10" t="s">
+      <c r="D59" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="35"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="35"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="35"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="35"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E64" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="s">
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B65" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="s">
+      <c r="C65" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="20" t="s">
+      <c r="D65" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="E65" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E60" s="22"/>
-    </row>
-    <row r="61" customFormat="false" ht="84.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13"/>
-      <c r="B61" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="24" t="s">
+      <c r="F65" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="32" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="E62" s="22"/>
-    </row>
-    <row r="63" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13"/>
-      <c r="B63" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E64" s="22"/>
-    </row>
-    <row r="65" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13"/>
-      <c r="B65" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="27"/>
-    </row>
-    <row r="67" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13"/>
       <c r="B67" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13"/>
+      <c r="B69" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13"/>
+      <c r="B71" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="26" t="s">
+      <c r="D71" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="E71" s="26" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="38"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="38"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="38"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="38"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
+      <c r="F71" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="43" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="27"/>
+    </row>
+    <row r="73" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13"/>
+      <c r="B73" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D73" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="26" t="s">
         <v>161</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="35"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="35"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="20" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D77" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="E74" s="22"/>
-    </row>
-    <row r="75" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13"/>
-      <c r="B75" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="24" t="s">
+      <c r="E77" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="F77" s="18" t="s">
         <v>167</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E76" s="22"/>
-    </row>
-    <row r="77" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13"/>
-      <c r="B77" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D77" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>178</v>
+        <v>169</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="E78" s="22"/>
     </row>
-    <row r="79" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13"/>
       <c r="B79" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>180</v>
+        <v>171</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>173</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E80" s="27"/>
-    </row>
-    <row r="81" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="13"/>
       <c r="B81" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13"/>
+      <c r="B83" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E84" s="27"/>
+    </row>
+    <row r="85" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="13"/>
+      <c r="B85" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="E85" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="F85" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F81" s="18" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="35"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="35"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="38"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="38"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
+      <c r="B88" s="9"/>
+      <c r="C88" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="41" t="s">
+      <c r="D89" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D85" s="42" t="s">
+      <c r="E89" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E85" s="44" t="s">
+      <c r="F89" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="18" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" s="22"/>
-    </row>
-    <row r="87" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="13"/>
-      <c r="B87" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="E88" s="22"/>
-    </row>
-    <row r="89" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13"/>
-      <c r="B89" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>178</v>
+        <v>192</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>193</v>
       </c>
       <c r="E90" s="22"/>
     </row>
-    <row r="91" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13"/>
       <c r="B91" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" s="32" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E92" s="27"/>
-    </row>
-    <row r="93" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92" s="22"/>
+    </row>
+    <row r="93" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="13"/>
       <c r="B93" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="27"/>
+    </row>
+    <row r="95" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="13"/>
+      <c r="B95" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D93" s="32" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="35"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="35"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="35"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="35"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="35"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="B101" s="9"/>
+      <c r="C101" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="D102" s="39" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="38"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="38"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
+      <c r="E102" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="12"/>
-    </row>
-    <row r="97" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B97" s="43" t="s">
+      <c r="F102" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" s="22"/>
+    </row>
+    <row r="104" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="13"/>
+      <c r="B104" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="D97" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="E97" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="s">
+      <c r="C104" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="D104" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="E98" s="22"/>
-    </row>
-    <row r="99" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="13"/>
-      <c r="B99" s="23" t="s">
+      <c r="C105" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="22"/>
+    </row>
+    <row r="106" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="13"/>
+      <c r="B106" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D99" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" s="26" t="s">
+      <c r="C106" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="D106" s="45" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="s">
+      <c r="E106" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="F106" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" s="29" t="s">
+      <c r="C107" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" s="27"/>
+    </row>
+    <row r="108" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="13"/>
+      <c r="B108" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E100" s="22"/>
-    </row>
-    <row r="101" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13"/>
-      <c r="B101" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="46" t="s">
+      <c r="D108" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="D101" s="32" t="s">
+      <c r="E108" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="F108" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F101" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E102" s="22"/>
-    </row>
-    <row r="103" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13"/>
-      <c r="B103" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="27"/>
-    </row>
-    <row r="105" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="13"/>
-      <c r="B105" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F105" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="38"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="38"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="38"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="38"/>
+      <c r="A109" s="35"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="38"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="35"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="12"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="F113" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" s="22"/>
+    </row>
+    <row r="115" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="13"/>
+      <c r="B115" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="12"/>
-    </row>
-    <row r="112" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B112" s="43" t="s">
+      <c r="F115" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E116" s="22"/>
+    </row>
+    <row r="117" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="13"/>
+      <c r="B117" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="D112" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="13" t="s">
+      <c r="C117" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="D117" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="E113" s="22"/>
-    </row>
-    <row r="114" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13"/>
-      <c r="B114" s="23" t="s">
+      <c r="C118" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="22"/>
+    </row>
+    <row r="119" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="13"/>
+      <c r="B119" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D114" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="E114" s="26" t="s">
+      <c r="C119" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="F114" s="18" t="s">
+      <c r="D119" s="29" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13" t="s">
+      <c r="E119" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="F119" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="D115" s="29" t="s">
+      <c r="C120" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="27"/>
+    </row>
+    <row r="121" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="13"/>
+      <c r="B121" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="E115" s="22"/>
-    </row>
-    <row r="116" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13"/>
-      <c r="B116" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="46" t="s">
+      <c r="D121" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D116" s="48" t="s">
+      <c r="E121" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="F121" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F116" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B117" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D117" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E117" s="22"/>
-    </row>
-    <row r="118" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13"/>
-      <c r="B118" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D118" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="F118" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D119" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" s="27"/>
-    </row>
-    <row r="120" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13"/>
-      <c r="B120" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D120" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="F120" s="18" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="38"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="38"/>
+      <c r="A122" s="35"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="38"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10" t="s">
@@ -14735,713 +11957,466 @@
       </c>
       <c r="F124" s="12"/>
     </row>
-    <row r="125" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B125" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E125" s="22"/>
+    </row>
+    <row r="126" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="13"/>
+      <c r="B126" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="D125" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="F125" s="18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B126" s="19" t="s">
+      <c r="C126" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B127" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C126" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E126" s="22"/>
-    </row>
-    <row r="127" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13"/>
-      <c r="B127" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D127" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C127" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E127" s="22"/>
+    </row>
+    <row r="128" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D128" s="29" t="s">
-        <v>280</v>
+        <v>265</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>266</v>
       </c>
       <c r="E128" s="22"/>
     </row>
-    <row r="129" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13"/>
-      <c r="B129" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B130" s="19" t="s">
+    <row r="129" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D130" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E130" s="22"/>
-    </row>
-    <row r="131" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="13"/>
-      <c r="B131" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D131" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="20" t="s">
+      <c r="C129" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D129" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E132" s="27"/>
-    </row>
-    <row r="133" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="13"/>
-      <c r="B133" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D133" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="E133" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="F133" s="18" t="s">
-        <v>293</v>
-      </c>
+      <c r="E129" s="27"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="35"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="35"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="35"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="35"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="38"/>
+      <c r="A134" s="35"/>
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="38"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B136" s="9"/>
-      <c r="C136" s="10" t="s">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="9"/>
+      <c r="C135" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D135" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E136" s="11" t="s">
+      <c r="E135" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F136" s="12"/>
-    </row>
-    <row r="137" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F135" s="12"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D136" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E137" s="22"/>
+    </row>
+    <row r="138" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="13"/>
+      <c r="B138" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C137" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="D137" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="F137" s="41" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B138" s="19" t="s">
+      <c r="C138" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D138" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C138" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="D138" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="E138" s="22"/>
-    </row>
-    <row r="139" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="13"/>
-      <c r="B139" s="23" t="s">
+      <c r="C139" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E139" s="22"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="13"/>
+      <c r="B140" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D139" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="F139" s="24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="B140" s="19" t="s">
+      <c r="C140" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C140" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="D140" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="E140" s="22"/>
-    </row>
-    <row r="141" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="13"/>
-      <c r="B141" s="23" t="s">
+      <c r="C141" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D141" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="13"/>
+      <c r="B142" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D141" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="E141" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="F141" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B142" s="19" t="s">
+      <c r="C142" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="F142" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B143" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C142" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D142" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="E142" s="22"/>
-    </row>
-    <row r="143" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="13"/>
-      <c r="B143" s="23" t="s">
+      <c r="C143" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="27"/>
+    </row>
+    <row r="144" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="13"/>
+      <c r="B144" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D143" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="E143" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D144" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E144" s="27"/>
-    </row>
-    <row r="145" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="13"/>
-      <c r="B145" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="D145" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="F145" s="18" t="s">
-        <v>319</v>
-      </c>
+      <c r="C144" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D144" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="35"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="38"/>
+      <c r="A146" s="35"/>
       <c r="B146" s="7"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="38"/>
-      <c r="B147" s="7"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="38"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" s="9"/>
+      <c r="C147" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F148" s="18" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="38"/>
+      <c r="A149" s="35"/>
       <c r="B149" s="7"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="38"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B151" s="9"/>
-      <c r="C151" s="10" t="s">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" s="9"/>
+      <c r="C150" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D150" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E151" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" s="12"/>
-    </row>
-    <row r="152" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="43" t="s">
+    </row>
+    <row r="151" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C152" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="D152" s="42" t="s">
-        <v>322</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="F152" s="18" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D153" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E153" s="22"/>
-    </row>
-    <row r="154" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="13"/>
-      <c r="B154" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D154" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="E154" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="F154" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D155" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E155" s="22"/>
-    </row>
-    <row r="156" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="13"/>
-      <c r="B156" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="D156" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="E156" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="F156" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="D157" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="E157" s="22"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="13"/>
-      <c r="B158" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D158" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="E158" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="F158" s="18" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D159" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E159" s="27"/>
-    </row>
-    <row r="160" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="13"/>
-      <c r="B160" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D160" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="E160" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="F160" s="18" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="38"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="38"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B163" s="9"/>
-      <c r="C163" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B164" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="D164" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="E164" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="F164" s="18" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="38"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B166" s="9"/>
-      <c r="C166" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="B167" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="D167" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="E167" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F167" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2"/>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-    </row>
+      <c r="C151" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="D151" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F151" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="E8:E167"/>
-  <mergeCells count="62">
+  <autoFilter ref="E8:E151"/>
+  <mergeCells count="53">
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A76:B76"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
     <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A150:B150"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/annotated_scripts.xlsx
+++ b/data/annotated_scripts.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Main script" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Main script'!$E$8:$E$151</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Z_E7F284B7_B5F7_4D04_B2BD_CA5521DD5FA3_.wvu.FilterData" vbProcedure="false">'Main script'!$E$1:$E$157</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Main script'!$E$8:$E$150</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Z_E7F284B7_B5F7_4D04_B2BD_CA5521DD5FA3_.wvu.FilterData" vbProcedure="false">'Main script'!$E$1:$E$156</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="300">
   <si>
     <t xml:space="preserve">Grace Dialogflow Script - 09/08/2023</t>
   </si>
@@ -4922,187 +4922,6 @@
   </si>
   <si>
     <t xml:space="preserve">Q5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">喺哩間房入面，如果有醫生或者護士，你可唔可以指出邊個係醫生，邊個係護士？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this room, if there are any nurses or doctors, would you be able to tell who is a nurse, and who is a doctor?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hai2 lei1 gaan1 fong2 jap6 min6, jyu4 gwo2 jau5 ji1 saang1 waak6 ze2 wu6 si6, nei5 ho2 m4 ho2 ji5 zi2 ceot1 bin1 go3 hai6 ji1 saang1, bin1 go3 hai6 wu6 si6?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">喺哩間房入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="min6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，如果有醫生或者護</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="si6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，你可唔可以指出邊個係醫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="hai2 lei1 gaan1 fong2 jap6 min6, jyu4 gwo2 jau5 ji1 saang1 waak6 ze2 wu6 si6, nei5 ho2 m4 ho2 ji5 zi2 ceot1 bin1 go3 hai6 ji1 saang1"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">，邊個係護</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;phoneme alphabet="x-amazon-jyutping" ph="si6"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">士</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/phoneme&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">？</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Intent 1: 
@@ -9613,7 +9432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9706,12 +9525,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -10110,7 +9923,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10206,7 +10019,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D68" activeCellId="0" sqref="D68"/>
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11279,157 +11092,143 @@
       </c>
       <c r="F76" s="12"/>
     </row>
-    <row r="77" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="13"/>
+      <c r="B78" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D77" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E77" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="F77" s="18" t="s">
+      <c r="C78" s="24" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="13" t="s">
+      <c r="D78" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="E78" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E78" s="22"/>
-    </row>
-    <row r="79" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13"/>
-      <c r="B79" s="23" t="s">
+      <c r="C79" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="13"/>
+      <c r="B80" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" s="26" t="s">
+      <c r="C80" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F79" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="13" t="s">
+      <c r="D80" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="E80" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C81" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" s="22"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="13"/>
+      <c r="B82" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="E82" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="F82" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E80" s="22"/>
-    </row>
-    <row r="81" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13"/>
-      <c r="B81" s="23" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="84" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="13"/>
+      <c r="B84" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D81" s="29" t="s">
+      <c r="C84" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="D84" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="F81" s="12" t="s">
+      <c r="E84" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="13" t="s">
+      <c r="F84" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="22"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="13"/>
-      <c r="B83" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E84" s="27"/>
-    </row>
-    <row r="85" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="13"/>
-      <c r="B85" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>185</v>
-      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="35"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="35"/>
@@ -11437,146 +11236,146 @@
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="35"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F88" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13"/>
+      <c r="B90" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E89" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89" s="18" t="s">
+      <c r="C90" s="24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="13" t="s">
+      <c r="D90" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="E90" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E90" s="22"/>
-    </row>
-    <row r="91" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="13"/>
-      <c r="B91" s="23" t="s">
+      <c r="C91" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E91" s="22"/>
+    </row>
+    <row r="92" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="13"/>
+      <c r="B92" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D91" s="43" t="s">
+      <c r="C92" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E91" s="26" t="s">
+      <c r="D92" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F91" s="12" t="s">
+      <c r="E92" s="26" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="13" t="s">
+      <c r="F92" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B92" s="19" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E92" s="22"/>
-    </row>
-    <row r="93" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="13"/>
-      <c r="B93" s="23" t="s">
+      <c r="C93" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="27"/>
+    </row>
+    <row r="94" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="13"/>
+      <c r="B94" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C94" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D93" s="29" t="s">
+      <c r="D94" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E93" s="26" t="s">
+      <c r="E94" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F93" s="18" t="s">
+      <c r="F94" s="18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E94" s="27"/>
-    </row>
-    <row r="95" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13"/>
-      <c r="B95" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D95" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>206</v>
-      </c>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="35"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="35"/>
@@ -11602,146 +11401,146 @@
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="35"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="s">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F101" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="12"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="102" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="22"/>
+    </row>
+    <row r="103" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="13"/>
+      <c r="B103" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F102" s="18" t="s">
+      <c r="C103" s="24" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="39.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="s">
+      <c r="D103" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="E103" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="22"/>
-    </row>
-    <row r="104" customFormat="false" ht="70.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13"/>
-      <c r="B104" s="23" t="s">
+      <c r="C104" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="22"/>
+    </row>
+    <row r="105" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="13"/>
+      <c r="B105" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" s="29" t="s">
+      <c r="C105" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="E104" s="26" t="s">
+      <c r="D105" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="F104" s="18" t="s">
+      <c r="E105" s="26" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="13" t="s">
+      <c r="F105" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B105" s="19" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E105" s="22"/>
-    </row>
-    <row r="106" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13"/>
-      <c r="B106" s="23" t="s">
+      <c r="C106" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" s="27"/>
+    </row>
+    <row r="107" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="13"/>
+      <c r="B107" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C107" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D106" s="45" t="s">
+      <c r="D107" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="E106" s="26" t="s">
+      <c r="E107" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F106" s="18" t="s">
+      <c r="F107" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E107" s="27"/>
-    </row>
-    <row r="108" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13"/>
-      <c r="B108" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F108" s="18" t="s">
-        <v>227</v>
-      </c>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="35"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="35"/>
@@ -11755,179 +11554,179 @@
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="35"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="12"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D112" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F112" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B112" s="9"/>
-      <c r="C112" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F112" s="12"/>
-    </row>
-    <row r="113" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="113" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B113" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" s="22"/>
+    </row>
+    <row r="114" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="13"/>
+      <c r="B114" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="D113" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="E113" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="F113" s="18" t="s">
+      <c r="C114" s="24" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="s">
+      <c r="D114" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="E114" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="D114" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E114" s="22"/>
-    </row>
-    <row r="115" customFormat="false" ht="100.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13"/>
-      <c r="B115" s="23" t="s">
+      <c r="C115" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" s="22"/>
+    </row>
+    <row r="116" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="13"/>
+      <c r="B116" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C115" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F115" s="18" t="s">
+      <c r="C116" s="46" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13" t="s">
+      <c r="D116" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="E116" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="D116" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="E116" s="22"/>
-    </row>
-    <row r="117" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13"/>
-      <c r="B117" s="23" t="s">
+      <c r="C117" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="22"/>
+    </row>
+    <row r="118" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="13"/>
+      <c r="B118" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C117" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="D117" s="47" t="s">
+      <c r="C118" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="E117" s="26" t="s">
+      <c r="D118" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="F117" s="12" t="s">
+      <c r="E118" s="26" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13" t="s">
+      <c r="F118" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="19" t="s">
+    </row>
+    <row r="119" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="22"/>
-    </row>
-    <row r="119" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13"/>
-      <c r="B119" s="23" t="s">
+      <c r="C119" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="27"/>
+    </row>
+    <row r="120" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="13"/>
+      <c r="B120" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C120" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D119" s="29" t="s">
+      <c r="D120" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="E119" s="26" t="s">
+      <c r="E120" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="F119" s="12" t="s">
+      <c r="F120" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="27"/>
-    </row>
-    <row r="121" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13"/>
-      <c r="B121" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>255</v>
-      </c>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="35"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="35"/>
@@ -11935,105 +11734,105 @@
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="35"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="s">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" s="9"/>
+      <c r="C123" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E124" s="22"/>
+    </row>
+    <row r="125" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="13"/>
+      <c r="B125" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D125" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="B124" s="9"/>
-      <c r="C124" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="12"/>
-    </row>
-    <row r="125" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="13" t="s">
+      <c r="E125" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="F125" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C125" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="D125" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="E125" s="22"/>
-    </row>
-    <row r="126" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13"/>
-      <c r="B126" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="24" t="s">
+      <c r="C126" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="D126" s="49" t="s">
+      <c r="D126" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E126" s="22"/>
+    </row>
+    <row r="127" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="E126" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="F126" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C127" s="48" t="s">
-        <v>263</v>
+      <c r="C127" s="20" t="s">
+        <v>261</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E127" s="22"/>
     </row>
-    <row r="128" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E128" s="22"/>
-    </row>
-    <row r="129" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D129" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E129" s="27"/>
+      <c r="E128" s="27"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="35"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="35"/>
@@ -12059,179 +11858,179 @@
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="35"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9" t="s">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="9"/>
+      <c r="C134" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="12"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D135" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" s="12"/>
-    </row>
-    <row r="136" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="136" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B136" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E136" s="22"/>
+    </row>
+    <row r="137" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="13"/>
+      <c r="B137" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="D136" s="39" t="s">
+      <c r="C137" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="E136" s="17" t="s">
+      <c r="D137" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="E137" s="26" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="13" t="s">
+      <c r="F137" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="19" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C137" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D137" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E137" s="22"/>
-    </row>
-    <row r="138" customFormat="false" ht="42.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="13"/>
-      <c r="B138" s="23" t="s">
+      <c r="C138" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E138" s="22"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="13"/>
+      <c r="B139" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D138" s="29" t="s">
+      <c r="C139" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="E138" s="26" t="s">
+      <c r="D139" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F138" s="18" t="s">
+      <c r="E139" s="26" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="13" t="s">
+      <c r="F139" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B139" s="19" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C139" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D139" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E139" s="22"/>
-    </row>
-    <row r="140" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="13"/>
-      <c r="B140" s="23" t="s">
+      <c r="C140" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="D140" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="13"/>
+      <c r="B141" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C140" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D140" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F140" s="12" t="s">
+      <c r="C141" s="24" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="13" t="s">
+      <c r="D141" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="E141" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D141" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="E141" s="22"/>
-    </row>
-    <row r="142" customFormat="false" ht="13.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="13"/>
-      <c r="B142" s="23" t="s">
+      <c r="C142" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="27"/>
+    </row>
+    <row r="143" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="13"/>
+      <c r="B143" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="24" t="s">
+      <c r="C143" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D142" s="29" t="s">
+      <c r="D143" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="E142" s="26" t="s">
+      <c r="E143" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="F142" s="18" t="s">
+      <c r="F143" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B143" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D143" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E143" s="27"/>
-    </row>
-    <row r="144" customFormat="false" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="13"/>
-      <c r="B144" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D144" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="F144" s="18" t="s">
-        <v>292</v>
-      </c>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="35"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="35"/>
@@ -12239,81 +12038,80 @@
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="35"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="s">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" s="9"/>
+      <c r="C146" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D147" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="B147" s="9"/>
-      <c r="C147" s="10" t="s">
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="35"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="9"/>
+      <c r="C149" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D149" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B148" s="51" t="s">
+    <row r="150" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B150" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="D148" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="E148" s="12" t="s">
+      <c r="C150" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F148" s="18" t="s">
+      <c r="D150" s="56" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="35"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="s">
+      <c r="E150" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="9"/>
-      <c r="C150" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="13" t="s">
+      <c r="F150" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B151" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="D151" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="E151" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="F151" s="18" t="s">
-        <v>303</v>
-      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
@@ -12340,11 +12138,7 @@
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12362,7 +12156,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="E8:E151"/>
+  <autoFilter ref="E8:E150"/>
   <mergeCells count="53">
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A10:A11"/>
@@ -12391,32 +12185,32 @@
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="A72:A73"/>
     <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A149:B149"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
